--- a/Project Schedule.xlsx
+++ b/Project Schedule.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29103"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99B85F6C-AACB-45A3-BFD1-73AAB8D1AE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29103"/>
+  <workbookPr hidePivotFieldList="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ACC4E3B-6479-4953-BBEB-7850F6A47DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Status_RAG">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="1964" r:id="rId3"/>
+    <pivotCache cacheId="3074" r:id="rId3"/>
   </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId4"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,93 +46,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="60">
+  <si>
+    <t>WBS_ID</t>
+  </si>
+  <si>
+    <t>Task_Name</t>
+  </si>
   <si>
     <t>Owner</t>
   </si>
   <si>
-    <t>Sum of Effort_Var_h</t>
+    <t>Baseline_Start</t>
+  </si>
+  <si>
+    <t>Baseline_Finish</t>
+  </si>
+  <si>
+    <t>Baseline_Effort_hrs</t>
+  </si>
+  <si>
+    <t>Predecessor(s)</t>
+  </si>
+  <si>
+    <t>Actual_Start</t>
+  </si>
+  <si>
+    <t>Actual_Finish</t>
+  </si>
+  <si>
+    <t>Actual_Effort_hrs</t>
+  </si>
+  <si>
+    <t>%_Complete</t>
+  </si>
+  <si>
+    <t>Effort_Var_h</t>
+  </si>
+  <si>
+    <t>Status_RAG</t>
+  </si>
+  <si>
+    <t>Initiation &amp; Planning</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Kick-off &amp; charter</t>
+  </si>
+  <si>
+    <t>Stakeholder &amp; risk register</t>
+  </si>
+  <si>
+    <t>Architecture &amp; Solution Design</t>
   </si>
   <si>
     <t>Arch</t>
   </si>
   <si>
+    <t>Tech stack &amp; cloud landing zone</t>
+  </si>
+  <si>
+    <t>Data model &amp; security design</t>
+  </si>
+  <si>
+    <t>Data-Pipeline Build</t>
+  </si>
+  <si>
     <t>DE 1</t>
-  </si>
-  <si>
-    <t>DE 2</t>
-  </si>
-  <si>
-    <t>Dev A</t>
-  </si>
-  <si>
-    <t>Dev B</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>UX</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>WBS_ID</t>
-  </si>
-  <si>
-    <t>Task_Name</t>
-  </si>
-  <si>
-    <t>Baseline_Start</t>
-  </si>
-  <si>
-    <t>Baseline_Finish</t>
-  </si>
-  <si>
-    <t>Baseline_Effort_hrs</t>
-  </si>
-  <si>
-    <t>Predecessor(s)</t>
-  </si>
-  <si>
-    <t>Actual_Start</t>
-  </si>
-  <si>
-    <t>Actual_Finish</t>
-  </si>
-  <si>
-    <t>Actual_Effort_hrs</t>
-  </si>
-  <si>
-    <t>%_Complete</t>
-  </si>
-  <si>
-    <t>Effort_Var_h</t>
-  </si>
-  <si>
-    <t>Status_RAG</t>
-  </si>
-  <si>
-    <t>Initiation &amp; Planning</t>
-  </si>
-  <si>
-    <t>Kick-off &amp; charter</t>
-  </si>
-  <si>
-    <t>Stakeholder &amp; risk register</t>
-  </si>
-  <si>
-    <t>Architecture &amp; Solution Design</t>
-  </si>
-  <si>
-    <t>Tech stack &amp; cloud landing zone</t>
-  </si>
-  <si>
-    <t>Data model &amp; security design</t>
-  </si>
-  <si>
-    <t>Data-Pipeline Build</t>
   </si>
   <si>
     <r>
@@ -143,6 +136,9 @@
     <t>Datastore schema &amp; indexing</t>
   </si>
   <si>
+    <t>DE 2</t>
+  </si>
+  <si>
     <t>Model Integration &amp; Tuning</t>
   </si>
   <si>
@@ -158,15 +154,24 @@
     <t>Backend APIs</t>
   </si>
   <si>
+    <t>Dev A</t>
+  </si>
+  <si>
     <t>CRUD &amp; auth endpoints</t>
   </si>
   <si>
     <t>AI processing orchestration API</t>
   </si>
   <si>
+    <t>Dev B</t>
+  </si>
+  <si>
     <t>Frontend &amp; UX</t>
   </si>
   <si>
+    <t>UX</t>
+  </si>
+  <si>
     <t>Wire-frames &amp; usability testing</t>
   </si>
   <si>
@@ -198,6 +203,42 @@
   </si>
   <si>
     <t>Project Closure &amp; Lessons Learned</t>
+  </si>
+  <si>
+    <t>Sum of Baseline_Effort_hrs</t>
+  </si>
+  <si>
+    <t>Sum of Actual_Effort_hrs</t>
+  </si>
+  <si>
+    <t>Sum of Effort_Var_h</t>
+  </si>
+  <si>
+    <t>Arch Total</t>
+  </si>
+  <si>
+    <t>Ingestion service (audio &amp; docs)</t>
+  </si>
+  <si>
+    <t>DE 1 Total</t>
+  </si>
+  <si>
+    <t>DE 2 Total</t>
+  </si>
+  <si>
+    <t>Dev A Total</t>
+  </si>
+  <si>
+    <t>Dev B Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>PM Total</t>
+  </si>
+  <si>
+    <t>UX Total</t>
   </si>
 </sst>
 </file>
@@ -262,7 +303,79 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -306,15 +419,91 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2305050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Status_RAG">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69921906-9404-C296-CB67-B752C57BF44B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Status_RAG"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="476250" y="209550"/>
+              <a:ext cx="1828800" cy="2638425"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45850.906766087966" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{4648F65C-D4D9-42F2-ABC9-DD378307C970}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Excel Services" refreshedDate="45850.950616319446" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="27" xr:uid="{D458A9E6-25A2-406C-A25E-772A1EC87A03}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:M28" sheet="Sheet1"/>
+    <worksheetSource ref="B1:M28" sheet="Sheet1"/>
   </cacheSource>
-  <cacheFields count="13">
-    <cacheField name="WBS_ID" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="11"/>
-    </cacheField>
+  <cacheFields count="12">
     <cacheField name="Task_Name" numFmtId="0">
       <sharedItems count="27">
         <s v="Initiation &amp; Planning"/>
@@ -385,12 +574,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-2" maxValue="12"/>
     </cacheField>
     <cacheField name="Status_RAG" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems count="3">
+        <s v="Amber"/>
+        <s v="Green"/>
+        <s v="Red"/>
+      </sharedItems>
     </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="880364632"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -399,7 +592,6 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="27">
   <r>
-    <n v="1"/>
     <x v="0"/>
     <x v="0"/>
     <d v="2024-04-01T00:00:00"/>
@@ -411,10 +603,9 @@
     <n v="42"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="1.1000000000000001"/>
     <x v="1"/>
     <x v="0"/>
     <d v="2024-04-01T00:00:00"/>
@@ -426,10 +617,9 @@
     <n v="18"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="1.2"/>
     <x v="2"/>
     <x v="0"/>
     <d v="2024-04-03T00:00:00"/>
@@ -441,10 +631,9 @@
     <n v="24"/>
     <n v="100"/>
     <n v="0"/>
-    <m/>
+    <x v="1"/>
   </r>
   <r>
-    <n v="2"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2024-04-08T00:00:00"/>
@@ -456,10 +645,9 @@
     <n v="86"/>
     <n v="100"/>
     <n v="6"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="2.1"/>
     <x v="4"/>
     <x v="1"/>
     <d v="2024-04-08T00:00:00"/>
@@ -471,10 +659,9 @@
     <n v="44"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="2.2000000000000002"/>
     <x v="5"/>
     <x v="1"/>
     <d v="2024-04-15T00:00:00"/>
@@ -486,10 +673,9 @@
     <n v="42"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="3"/>
     <x v="6"/>
     <x v="2"/>
     <d v="2024-04-22T00:00:00"/>
@@ -501,10 +687,9 @@
     <n v="128"/>
     <n v="100"/>
     <n v="8"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="3.1"/>
     <x v="7"/>
     <x v="2"/>
     <d v="2024-04-22T00:00:00"/>
@@ -516,10 +701,9 @@
     <n v="64"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="3.2"/>
     <x v="8"/>
     <x v="3"/>
     <d v="2024-05-06T00:00:00"/>
@@ -531,10 +715,9 @@
     <n v="64"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="4"/>
     <x v="9"/>
     <x v="3"/>
     <d v="2024-05-20T00:00:00"/>
@@ -546,10 +729,9 @@
     <n v="172"/>
     <n v="100"/>
     <n v="12"/>
-    <m/>
+    <x v="2"/>
   </r>
   <r>
-    <n v="4.0999999999999996"/>
     <x v="10"/>
     <x v="3"/>
     <d v="2024-05-20T00:00:00"/>
@@ -561,10 +743,9 @@
     <n v="88"/>
     <n v="100"/>
     <n v="8"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="4.2"/>
     <x v="11"/>
     <x v="2"/>
     <d v="2024-06-12T00:00:00"/>
@@ -576,10 +757,9 @@
     <n v="42"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="4.3"/>
     <x v="12"/>
     <x v="3"/>
     <d v="2024-06-26T00:00:00"/>
@@ -591,10 +771,9 @@
     <n v="42"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="5"/>
     <x v="13"/>
     <x v="4"/>
     <d v="2024-06-03T00:00:00"/>
@@ -606,10 +785,9 @@
     <n v="170"/>
     <n v="100"/>
     <n v="10"/>
-    <m/>
+    <x v="2"/>
   </r>
   <r>
-    <n v="5.0999999999999996"/>
     <x v="14"/>
     <x v="4"/>
     <d v="2024-06-03T00:00:00"/>
@@ -621,10 +799,9 @@
     <n v="84"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="5.2"/>
     <x v="15"/>
     <x v="5"/>
     <d v="2024-06-19T00:00:00"/>
@@ -636,10 +813,9 @@
     <n v="86"/>
     <n v="100"/>
     <n v="6"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="6"/>
     <x v="16"/>
     <x v="6"/>
     <d v="2024-06-17T00:00:00"/>
@@ -651,10 +827,9 @@
     <n v="126"/>
     <n v="100"/>
     <n v="6"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="6.1"/>
     <x v="17"/>
     <x v="6"/>
     <d v="2024-06-17T00:00:00"/>
@@ -666,10 +841,9 @@
     <n v="42"/>
     <n v="100"/>
     <n v="2"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="6.2"/>
     <x v="18"/>
     <x v="5"/>
     <d v="2024-07-03T00:00:00"/>
@@ -681,10 +855,9 @@
     <n v="66"/>
     <n v="100"/>
     <n v="6"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="6.3"/>
     <x v="19"/>
     <x v="6"/>
     <d v="2024-07-31T00:00:00"/>
@@ -696,10 +869,9 @@
     <n v="18"/>
     <n v="100"/>
     <n v="-2"/>
-    <m/>
+    <x v="1"/>
   </r>
   <r>
-    <n v="7"/>
     <x v="20"/>
     <x v="4"/>
     <d v="2024-08-05T00:00:00"/>
@@ -711,10 +883,9 @@
     <n v="85"/>
     <n v="100"/>
     <n v="5"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="8"/>
     <x v="21"/>
     <x v="2"/>
     <d v="2024-08-19T00:00:00"/>
@@ -726,10 +897,9 @@
     <n v="128"/>
     <n v="100"/>
     <n v="8"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="8.1"/>
     <x v="22"/>
     <x v="2"/>
     <d v="2024-08-21T00:00:00"/>
@@ -741,10 +911,9 @@
     <n v="64"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="8.1999999999999993"/>
     <x v="23"/>
     <x v="3"/>
     <d v="2024-09-04T00:00:00"/>
@@ -756,10 +925,9 @@
     <n v="64"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="9"/>
     <x v="24"/>
     <x v="0"/>
     <d v="2024-09-17T00:00:00"/>
@@ -771,10 +939,9 @@
     <n v="44"/>
     <n v="100"/>
     <n v="4"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="10"/>
     <x v="25"/>
     <x v="1"/>
     <d v="2024-10-01T00:00:00"/>
@@ -786,10 +953,9 @@
     <n v="46"/>
     <n v="100"/>
     <n v="6"/>
-    <m/>
+    <x v="0"/>
   </r>
   <r>
-    <n v="11"/>
     <x v="26"/>
     <x v="0"/>
     <d v="2024-10-08T00:00:00"/>
@@ -801,17 +967,163 @@
     <n v="32"/>
     <n v="100"/>
     <n v="0"/>
-    <m/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{28749081-6CAB-4AEC-924A-886E3E93466C}" name="PivotTable1" cacheId="1964" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A3:B11" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B8D6B2ED-B287-444D-AEAB-B04AF85A4342}" name="PivotTable2" cacheId="3074" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="F18:G41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="28">
+        <item x="15"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="25"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="23"/>
+        <item x="26"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="17"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Effort_Var_h" fld="10" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0D75653B-A54E-47F8-9549-556C519F0BC5}" name="PivotTable1" cacheId="3074" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A18:D47" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="12">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="28">
         <item x="15"/>
         <item x="3"/>
@@ -857,51 +1169,138 @@
     </pivotField>
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
-    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="29">
     <i>
       <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i t="default">
+      <x/>
     </i>
     <i>
       <x v="1"/>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
     </i>
     <i>
       <x v="3"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
     </i>
     <i>
       <x v="4"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
     </i>
     <i>
       <x v="5"/>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
     </i>
     <i>
       <x v="6"/>
-    </i>
-    <i t="grand">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
       <x/>
     </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
   </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Effort_Var_h" fld="11" baseField="0" baseItem="0"/>
+  <dataFields count="2">
+    <dataField name="Sum of Baseline_Effort_hrs" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Actual_Effort_hrs" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight20" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -911,6 +1310,57 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Status_RAG" xr10:uid="{6D255A0A-5452-4145-8B2D-537D2B3B3819}" sourceName="Status_RAG">
+  <pivotTables>
+    <pivotTable tabId="2" name="PivotTable2"/>
+    <pivotTable tabId="2" name="PivotTable1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="880364632">
+      <items count="3">
+        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Status_RAG" xr10:uid="{0FD33790-F584-4A60-BBDD-FF36F49B96FC}" cache="Slicer_Status_RAG" caption="Status_RAG" rowHeight="228600"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{75F8CD44-0E29-4072-89F2-8964BC649E93}" name="Table1" displayName="Table1" ref="A1:M28" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A1:M28" xr:uid="{75F8CD44-0E29-4072-89F2-8964BC649E93}"/>
+  <tableColumns count="13">
+    <tableColumn id="13" xr3:uid="{8DB3188D-0AC2-4F83-893A-31B1AB8F1AFE}" name="WBS_ID" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{9DD7C449-3228-4D76-BED6-E64358A9EF6E}" name="Task_Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{F31887F3-CC71-463C-A320-520ACFBB5434}" name="Owner"/>
+    <tableColumn id="3" xr3:uid="{4717CDD3-1960-4EB5-B1CE-A3753C51FC3E}" name="Baseline_Start" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{BB0E0C7C-E298-4540-967C-E447A3901B56}" name="Baseline_Finish" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{1D9CFC49-782A-4275-ACBF-E07D4D030BBA}" name="Baseline_Effort_hrs"/>
+    <tableColumn id="6" xr3:uid="{DB253EBD-AFEF-4DB3-987A-CA0EE54D9C4F}" name="Predecessor(s)"/>
+    <tableColumn id="7" xr3:uid="{7E850237-09FD-4A0C-A738-BBDB124EFB6E}" name="Actual_Start" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{6FCCDC8D-029B-4CC2-B16C-9DFDE6B3F99D}" name="Actual_Finish" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{6867A93A-B834-4223-A3DA-15A4BC19EB9F}" name="Actual_Effort_hrs"/>
+    <tableColumn id="10" xr3:uid="{A9BF5EAC-F220-4DB1-91B7-20D2AB825D86}" name="%_Complete"/>
+    <tableColumn id="11" xr3:uid="{EF858B35-8AC2-4F8C-91EF-F9F4A771ED61}" name="Effort_Var_h" dataDxfId="1">
+      <calculatedColumnFormula>J2-F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{244E7D3C-7074-4ACD-9891-4DD202A2490B}" name="Status_RAG" dataDxfId="0">
+      <calculatedColumnFormula>IF( L2 &gt; 8,        "Red",
+ IF( L2 &gt; 0,        "Amber",               "Green") )</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1229,172 +1679,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5593E588-77AE-4DCA-BB56-C568E0C45AFF}">
-  <dimension ref="A3:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="12.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="43.5">
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2">
         <v>45383</v>
@@ -1428,14 +1790,14 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1.1000000000000001</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>45383</v>
@@ -1469,14 +1831,14 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1.2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2">
         <v>45385</v>
@@ -1516,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
         <v>45390</v>
@@ -1555,14 +1917,14 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>45390</v>
@@ -1598,14 +1960,14 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
         <v>45397</v>
@@ -1645,10 +2007,10 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2">
         <v>45404</v>
@@ -1684,14 +2046,14 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>3.1</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2">
         <v>45404</v>
@@ -1727,14 +2089,14 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3.2</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2">
         <v>45418</v>
@@ -1774,10 +2136,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>45432</v>
@@ -1813,14 +2175,14 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>4.0999999999999996</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>45432</v>
@@ -1856,14 +2218,14 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>4.2</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
         <v>45455</v>
@@ -1899,14 +2261,14 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>4.3</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>45469</v>
@@ -1946,10 +2308,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45446</v>
@@ -1985,14 +2347,14 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>5.0999999999999996</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45446</v>
@@ -2028,14 +2390,14 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>5.2</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>45462</v>
@@ -2075,10 +2437,10 @@
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>45460</v>
@@ -2114,14 +2476,14 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>6.1</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>45460</v>
@@ -2157,14 +2519,14 @@
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>6.2</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2">
         <v>45476</v>
@@ -2200,14 +2562,14 @@
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>6.3</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2">
         <v>45504</v>
@@ -2247,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45509</v>
@@ -2262,7 +2624,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H22" s="2">
         <v>45509</v>
@@ -2290,10 +2652,10 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
         <v>45523</v>
@@ -2329,14 +2691,14 @@
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>8.1</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2">
         <v>45525</v>
@@ -2372,14 +2734,14 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>8.1999999999999993</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D25" s="2">
         <v>45539</v>
@@ -2419,10 +2781,10 @@
         <v>9</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D26" s="2">
         <v>45552</v>
@@ -2462,10 +2824,10 @@
         <v>10</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
         <v>45566</v>
@@ -2505,10 +2867,10 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D28" s="2">
         <v>45573</v>
@@ -2545,21 +2907,553 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2:L28">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="greaterThan">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
       <formula>1</formula>
       <formula>8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="lessThanOrEqual">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5593E588-77AE-4DCA-BB56-C568E0C45AFF}">
+  <dimension ref="A18:G47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <v>80</v>
+      </c>
+      <c r="D19" s="5">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5">
+        <v>40</v>
+      </c>
+      <c r="D21" s="5">
+        <v>46</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>40</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="5">
+        <v>200</v>
+      </c>
+      <c r="D23" s="5">
+        <v>218</v>
+      </c>
+      <c r="F23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="5">
+        <v>120</v>
+      </c>
+      <c r="D24" s="5">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5">
+        <v>120</v>
+      </c>
+      <c r="D25" s="5">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="5">
+        <v>40</v>
+      </c>
+      <c r="D26" s="5">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="5">
+        <v>400</v>
+      </c>
+      <c r="D29" s="5">
+        <v>426</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="5">
+        <v>60</v>
+      </c>
+      <c r="D30" s="5">
+        <v>64</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="5">
+        <v>40</v>
+      </c>
+      <c r="D31" s="5">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="5">
+        <v>60</v>
+      </c>
+      <c r="D32" s="5">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="5">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5">
+        <v>88</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="5">
+        <v>240</v>
+      </c>
+      <c r="D34" s="5">
+        <v>258</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="5">
+        <v>80</v>
+      </c>
+      <c r="D35" s="5">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+      <c r="G35" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="5">
+        <v>80</v>
+      </c>
+      <c r="D36" s="5">
+        <v>85</v>
+      </c>
+      <c r="F36" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="5">
+        <v>160</v>
+      </c>
+      <c r="D37" s="5">
+        <v>169</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5">
+        <v>80</v>
+      </c>
+      <c r="D38" s="5">
+        <v>86</v>
+      </c>
+      <c r="F38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>60</v>
+      </c>
+      <c r="D39" s="5">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5">
+        <v>140</v>
+      </c>
+      <c r="D40" s="5">
+        <v>152</v>
+      </c>
+      <c r="F40" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="5">
+        <v>40</v>
+      </c>
+      <c r="D41" s="5">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5">
+        <v>16</v>
+      </c>
+      <c r="D42" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5">
+        <v>40</v>
+      </c>
+      <c r="D43" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="5">
+        <v>96</v>
+      </c>
+      <c r="D44" s="5">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="5">
+        <v>120</v>
+      </c>
+      <c r="D45" s="5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="5">
+        <v>40</v>
+      </c>
+      <c r="D46" s="5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="5">
+        <v>160</v>
+      </c>
+      <c r="D47" s="5">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>